--- a/Team-Data/2008-09/1-25-2008-09.xlsx
+++ b/Team-Data/2008-09/1-25-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,31 +751,31 @@
         <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M2" t="n">
         <v>21.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
         <v>29.7</v>
@@ -723,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -732,40 +799,40 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
         <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>20</v>
@@ -798,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
@@ -810,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -863,34 +930,34 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
         <v>32</v>
@@ -899,34 +966,34 @@
         <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,34 +1005,34 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>6</v>
       </c>
-      <c r="AP3" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -998,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,31 +1115,31 @@
         <v>33.9</v>
       </c>
       <c r="J4" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>18.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
         <v>28.7</v>
@@ -1081,25 +1148,25 @@
         <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>91.59999999999999</v>
@@ -1108,19 +1175,19 @@
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1141,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>18</v>
@@ -1156,16 +1223,16 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1215,64 +1282,64 @@
         <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.386</v>
+        <v>0.409</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1281,58 +1348,58 @@
         <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
       </c>
       <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
         <v>20</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1341,25 +1408,25 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
         <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>24</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1490,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
@@ -1508,10 +1575,10 @@
         <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,31 +1587,31 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
@@ -1606,34 +1673,34 @@
         <v>20.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O7" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U7" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>5.4</v>
@@ -1642,28 +1709,28 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB7" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1705,22 +1772,22 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.659</v>
+        <v>0.651</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
         <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA8" t="n">
         <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1854,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1896,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -1940,106 +2007,106 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J9" t="n">
         <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
         <v>22.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R9" t="n">
         <v>10.7</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T9" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V9" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
         <v>5.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
         <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
@@ -2057,25 +2124,25 @@
         <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2087,10 +2154,10 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.311</v>
+        <v>0.295</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
         <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O10" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2191,16 +2258,16 @@
         <v>21.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB10" t="n">
         <v>107.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.3</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
@@ -2239,31 +2306,31 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.622</v>
+        <v>0.614</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J11" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O11" t="n">
         <v>19.6</v>
@@ -2343,28 +2410,28 @@
         <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y11" t="n">
         <v>5.4</v>
@@ -2373,16 +2440,16 @@
         <v>18.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC11" t="n">
         <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2391,31 +2458,31 @@
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2424,22 +2491,22 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,10 +2515,10 @@
         <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.386</v>
+        <v>0.372</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
@@ -2507,7 +2574,7 @@
         <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>7.4</v>
@@ -2516,7 +2583,7 @@
         <v>20.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>19</v>
@@ -2525,19 +2592,19 @@
         <v>23.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
         <v>15.2</v>
@@ -2549,31 +2616,31 @@
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
         <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
         <v>22</v>
       </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
@@ -2588,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2612,19 +2679,19 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.233</v>
+        <v>0.238</v>
       </c>
       <c r="H13" t="n">
         <v>48.7</v>
@@ -2686,73 +2753,73 @@
         <v>35.4</v>
       </c>
       <c r="J13" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M13" t="n">
         <v>16.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="O13" t="n">
         <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U13" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.1</v>
+        <v>-6.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>27</v>
@@ -2761,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2773,10 +2840,10 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2785,25 +2852,25 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,13 +2879,13 @@
         <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -2865,10 +2932,10 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,34 +2944,34 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2913,31 +2980,31 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2946,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
@@ -2976,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,13 +3189,13 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
         <v>18</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3149,7 +3216,7 @@
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3170,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
@@ -3179,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -3328,13 +3395,13 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3343,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3352,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.478</v>
+        <v>0.468</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.448</v>
@@ -3426,13 +3493,13 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
         <v>0.78</v>
@@ -3441,16 +3508,16 @@
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,13 +3547,13 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3507,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3519,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
         <v>13</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>0.357</v>
+        <v>0.341</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.441</v>
@@ -3608,70 +3675,70 @@
         <v>16.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.4</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA18" t="n">
         <v>20.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>17</v>
@@ -3707,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3865,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
@@ -3901,16 +3968,16 @@
         <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB19" t="n">
         <v>15</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>17</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
@@ -4041,16 +4108,16 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -4071,7 +4138,7 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4089,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4256,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>11</v>
@@ -4268,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG22" t="n">
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4420,10 +4487,10 @@
         <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR22" t="n">
         <v>10</v>
@@ -4432,13 +4499,13 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4453,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4602,7 +4669,7 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,22 +4681,22 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,10 +4827,10 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
@@ -4784,10 +4851,10 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4799,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
@@ -4814,16 +4881,16 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J25" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
         <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W25" t="n">
         <v>6.3</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB25" t="n">
         <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4954,22 +5021,22 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -4978,22 +5045,22 @@
         <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>10</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.619</v>
+        <v>0.605</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L26" t="n">
         <v>7.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
         <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5100,28 +5167,28 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5133,22 +5200,22 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>16</v>
@@ -5163,7 +5230,7 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5175,19 +5242,19 @@
         <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5240,19 +5307,19 @@
         <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P27" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.804</v>
@@ -5261,10 +5328,10 @@
         <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
@@ -5285,28 +5352,28 @@
         <v>23.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5315,37 +5382,37 @@
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="n">
         <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.674</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
         <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U28" t="n">
         <v>21.8</v>
@@ -5455,28 +5522,28 @@
         <v>12.1</v>
       </c>
       <c r="W28" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,10 +5558,10 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,10 +5570,10 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5530,16 +5597,16 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.391</v>
+        <v>0.378</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
         <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>6.2</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="R29" t="n">
         <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T29" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
@@ -5646,55 +5713,55 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
         <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
       </c>
       <c r="AI29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM29" t="n">
         <v>20</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK29" t="n">
+      <c r="AN29" t="n">
         <v>8</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5715,10 +5782,10 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5727,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
         <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.473</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M30" t="n">
         <v>13.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O30" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.768</v>
+        <v>0.773</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>12</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>16</v>
@@ -6052,7 +6119,7 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>29</v>
@@ -6073,10 +6140,10 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-25-2008-09</t>
+          <t>2009-01-25</t>
         </is>
       </c>
     </row>
